--- a/Paper_Analysis/2022 Paper Analysis.xlsx
+++ b/Paper_Analysis/2022 Paper Analysis.xlsx
@@ -3347,7 +3347,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3370,6 +3370,7 @@
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -33069,6 +33070,12 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="516">
+      <c r="A516" s="8">
+        <f>COUNTIF(A2:A513,"*")</f>
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
